--- a/orchid_growth_agar_biweekly_weekly_2025-10-21.xlsx
+++ b/orchid_growth_agar_biweekly_weekly_2025-10-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4year\reserch 4y\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4year\reserch 4y\Orchid-Insights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABBEAC56-E63F-4227-80C2-255CBDAE70C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ADF666-5B07-44D9-8D0C-2FD5AC8AE16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="101">
   <si>
     <t>sample_id</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>25–60 mm</t>
+  </si>
+  <si>
+    <t>1–10 mm</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F498" sqref="F498:F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,7 +786,7 @@
         <v>19.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,7 +906,7 @@
         <v>2.8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,7 +926,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,7 +946,7 @@
         <v>14.4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1066,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,7 +1086,7 @@
         <v>11.2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,7 +1106,7 @@
         <v>17.7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,7 +1246,7 @@
         <v>6.9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1406,7 @@
         <v>9.4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1426,7 @@
         <v>16.5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3780,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>96</v>
@@ -10663,7 +10666,7 @@
         <v>2</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10683,7 +10686,7 @@
         <v>7.5</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10703,7 +10706,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -10823,7 +10826,7 @@
         <v>3</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -10843,7 +10846,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10863,7 +10866,7 @@
         <v>17</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -10983,7 +10986,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -11003,7 +11006,7 @@
         <v>5.5</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -11023,7 +11026,7 @@
         <v>17.5</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,7 +11146,7 @@
         <v>2</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -11163,7 +11166,7 @@
         <v>6</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -11183,7 +11186,7 @@
         <v>15.3</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -11303,7 +11306,7 @@
         <v>5</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -11323,7 +11326,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -11343,7 +11346,7 @@
         <v>18.7</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -11463,7 +11466,7 @@
         <v>2</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -11483,7 +11486,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -11503,7 +11506,7 @@
         <v>14.8</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -11623,7 +11626,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -11643,7 +11646,7 @@
         <v>9</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -11663,7 +11666,7 @@
         <v>16</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -11783,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -11803,7 +11806,7 @@
         <v>5.5</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -11823,7 +11826,7 @@
         <v>15.3</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -11943,7 +11946,7 @@
         <v>3.5</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -11963,7 +11966,7 @@
         <v>5.7</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -11983,7 +11986,7 @@
         <v>19.7</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -12103,7 +12106,7 @@
         <v>4.8</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -12123,7 +12126,7 @@
         <v>6.9</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -12143,7 +12146,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -12263,7 +12266,7 @@
         <v>2.6</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -12283,7 +12286,7 @@
         <v>6.1</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -12303,7 +12306,7 @@
         <v>17.5</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -12423,7 +12426,7 @@
         <v>2</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -12443,7 +12446,7 @@
         <v>9.4</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -12463,7 +12466,7 @@
         <v>16.5</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -12583,7 +12586,7 @@
         <v>5</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -12603,7 +12606,7 @@
         <v>11.1</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -12623,7 +12626,7 @@
         <v>18.2</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -12743,7 +12746,7 @@
         <v>2</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -12763,7 +12766,7 @@
         <v>7</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -12783,7 +12786,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -12900,10 +12903,10 @@
         <v>30</v>
       </c>
       <c r="E610" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -12923,7 +12926,7 @@
         <v>11.3</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -12943,7 +12946,7 @@
         <v>19.3</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -13063,7 +13066,7 @@
         <v>2.7</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -13083,7 +13086,7 @@
         <v>6</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -13103,7 +13106,7 @@
         <v>17</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -13223,7 +13226,7 @@
         <v>2</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -13243,7 +13246,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -13263,7 +13266,7 @@
         <v>15.1</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -13383,7 +13386,7 @@
         <v>3.9</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -13403,7 +13406,7 @@
         <v>9.1</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -13423,7 +13426,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
